--- a/PERSONEL.xlsx
+++ b/PERSONEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk44142\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D85A6C-0B6E-4C6B-A486-837EDFE3C3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BA531-9D5B-43D6-96AE-D477B9EC1235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personel Listesi" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="213">
   <si>
     <t>Sıra No</t>
   </si>
@@ -414,12 +414,6 @@
     <t>28287</t>
   </si>
   <si>
-    <t>HAKAN ÖZEL</t>
-  </si>
-  <si>
-    <t>30844</t>
-  </si>
-  <si>
     <t>EBRU ŞİMŞEK</t>
   </si>
   <si>
@@ -526,12 +520,6 @@
   </si>
   <si>
     <t>32400</t>
-  </si>
-  <si>
-    <t>AHMET YILDIRIM</t>
-  </si>
-  <si>
-    <t>26352</t>
   </si>
   <si>
     <t>CANER OKAY</t>
@@ -1052,22 +1040,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="40.875" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="30.8984375" customWidth="1"/>
+    <col min="3" max="3" width="40.8984375" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1101,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1118,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1135,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1152,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1169,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1186,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1203,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1220,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1237,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1254,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1271,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1288,7 +1276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1305,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1322,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1339,7 +1327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1356,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1373,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1390,7 +1378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1407,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1424,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1441,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1458,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1475,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1492,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1509,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1526,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1543,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1560,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1577,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1594,7 +1582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1611,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1628,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1645,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1662,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1679,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1696,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1713,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1730,7 +1718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1747,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1764,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1781,7 +1769,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1798,7 +1786,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1815,7 +1803,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1832,7 +1820,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1849,7 +1837,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1866,7 +1854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1883,7 +1871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1900,7 +1888,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1917,7 +1905,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1934,7 +1922,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1951,7 +1939,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1968,7 +1956,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1985,7 +1973,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2002,7 +1990,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2010,7 +1998,7 @@
         <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
         <v>130</v>
@@ -2019,7 +2007,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2036,7 +2024,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2053,7 +2041,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2061,7 +2049,7 @@
         <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
         <v>136</v>
@@ -2070,7 +2058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2078,7 +2066,7 @@
         <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
         <v>138</v>
@@ -2087,7 +2075,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2095,7 +2083,7 @@
         <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
         <v>140</v>
@@ -2104,7 +2092,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2112,7 +2100,7 @@
         <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
@@ -2121,7 +2109,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2129,33 +2117,33 @@
         <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
         <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2163,16 +2151,16 @@
         <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
         <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2180,16 +2168,16 @@
         <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
         <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2197,33 +2185,33 @@
         <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
         <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" t="s">
         <v>154</v>
       </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>155</v>
-      </c>
-      <c r="E68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2231,16 +2219,16 @@
         <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
         <v>158</v>
       </c>
       <c r="E69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2254,10 +2242,10 @@
         <v>160</v>
       </c>
       <c r="E70" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2265,16 +2253,16 @@
         <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
         <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2282,16 +2270,16 @@
         <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
         <v>164</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2305,10 +2293,10 @@
         <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2322,10 +2310,10 @@
         <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2333,16 +2321,16 @@
         <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
         <v>170</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2350,16 +2338,16 @@
         <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
         <v>172</v>
       </c>
       <c r="E76" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2373,10 +2361,10 @@
         <v>174</v>
       </c>
       <c r="E77" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2390,10 +2378,10 @@
         <v>176</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2401,16 +2389,16 @@
         <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
         <v>178</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2418,16 +2406,16 @@
         <v>179</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
         <v>180</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2441,10 +2429,10 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2452,50 +2440,50 @@
         <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
         <v>184</v>
       </c>
       <c r="E82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" t="s">
         <v>185</v>
       </c>
-      <c r="C83" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" t="s">
-        <v>186</v>
-      </c>
-      <c r="E83" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2503,16 +2491,16 @@
         <v>190</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
         <v>191</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2520,16 +2508,16 @@
         <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
         <v>193</v>
       </c>
       <c r="E86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2537,16 +2525,16 @@
         <v>194</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
         <v>195</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2554,16 +2542,16 @@
         <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s">
         <v>197</v>
       </c>
       <c r="E88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2571,16 +2559,16 @@
         <v>198</v>
       </c>
       <c r="C89" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
         <v>199</v>
       </c>
       <c r="E89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2588,16 +2576,16 @@
         <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
         <v>201</v>
       </c>
       <c r="E90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2611,10 +2599,10 @@
         <v>203</v>
       </c>
       <c r="E91" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2628,10 +2616,10 @@
         <v>205</v>
       </c>
       <c r="E92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2645,10 +2633,10 @@
         <v>207</v>
       </c>
       <c r="E93" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2656,70 +2644,36 @@
         <v>208</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="D94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>212</v>
-      </c>
-      <c r="C96" t="s">
-        <v>213</v>
-      </c>
-      <c r="D96" t="s">
-        <v>214</v>
-      </c>
-      <c r="E96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>215</v>
-      </c>
-      <c r="C97" t="s">
-        <v>75</v>
-      </c>
-      <c r="D97" t="s">
-        <v>216</v>
-      </c>
-      <c r="E97" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 B3:E97 B2:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 B3:E55 B2:E2 B56:E72 B73:E95" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>